--- a/data/trans_camb/P1404-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1404-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>7.440262618894569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.333118972385869</v>
+        <v>7.333118972385871</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.767132687078259</v>
@@ -655,7 +655,7 @@
         <v>3.96850966543759</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.750487307905722</v>
+        <v>4.750487307905719</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.64547244756547</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4773579228430196</v>
+        <v>0.4581029333202347</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.263699200171456</v>
+        <v>3.331347969259563</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.35746407877581</v>
+        <v>3.173446937707746</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.239597088163394</v>
+        <v>-2.828734939274346</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.295635307496336</v>
+        <v>-1.707235289316196</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.3865961513652804</v>
+        <v>0.1412130170178051</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1393369181898692</v>
+        <v>0.1231361383219648</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.026342548032054</v>
+        <v>1.901267112597107</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.994122702811706</v>
+        <v>3.259989594362527</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.171240528265342</v>
+        <v>9.502891036284058</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.90429069863013</v>
+        <v>13.24334895990133</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.22254566275877</v>
+        <v>11.47371121746423</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.081065781101779</v>
+        <v>8.260542592546125</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.790722832376209</v>
+        <v>9.520301753071161</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.288984935364098</v>
+        <v>9.066604252328769</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.366772477006442</v>
+        <v>7.029751815986011</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.519488803608672</v>
+        <v>9.430854861830069</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.008903554614715</v>
+        <v>9.281572963150497</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4063543136119405</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4864246712407616</v>
+        <v>0.4864246712407613</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4885892301941618</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04014643925518169</v>
+        <v>0.03303723073843939</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2931400331365495</v>
+        <v>0.4063631853908419</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3528602112494996</v>
+        <v>0.3974456852983728</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2669758818450789</v>
+        <v>-0.2634428888391026</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.108784367844939</v>
+        <v>-0.1648831264094303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03814366737294742</v>
+        <v>0.007724148855548629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.002104184446676559</v>
+        <v>0.00750351721096962</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1847816584530673</v>
+        <v>0.2119267263561733</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.298869293202161</v>
+        <v>0.3156078264689288</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.360008416887247</v>
+        <v>2.691719072680658</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.129491634837958</v>
+        <v>3.859849891545522</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.081754235571564</v>
+        <v>3.27819419159616</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.079859158900287</v>
+        <v>1.063673057652538</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.489290216707778</v>
+        <v>1.295355006932041</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.292974457203653</v>
+        <v>1.377337214042069</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.257804421981171</v>
+        <v>1.160763079904214</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.543255682676238</v>
+        <v>1.57463326284149</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.534771472999388</v>
+        <v>1.559879252410112</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.876355038186431</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.240363644497079</v>
+        <v>4.240363644497077</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.444815376672462</v>
@@ -869,7 +869,7 @@
         <v>3.924138271981256</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.814905151714664</v>
+        <v>2.814905151714661</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.547721968273692</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.699288633844467</v>
+        <v>1.344616585485663</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1339818436134658</v>
+        <v>0.08215952243933861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6023293130078216</v>
+        <v>0.3766806924737798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.461146689049896</v>
+        <v>1.339857484208559</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1401580245434709</v>
+        <v>-0.2416277866889621</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.883912375443943</v>
+        <v>-0.6225836774370472</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.670802735170862</v>
+        <v>2.65708495139703</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8971364881653688</v>
+        <v>1.121167953414603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9955440700860952</v>
+        <v>0.7611594872624494</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.893872739776457</v>
+        <v>10.03421819368624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.727060079702701</v>
+        <v>7.708411277217121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.918501392916137</v>
+        <v>8.265280570142535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.14206976102166</v>
+        <v>9.993039091214131</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.927009459949794</v>
+        <v>8.268688142005386</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.008758760925635</v>
+        <v>6.468162944428392</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>8.677584977385527</v>
+        <v>8.37185008701066</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.677052345037482</v>
+        <v>6.777919189803612</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.201077002115979</v>
+        <v>5.92409331293057</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.5101763442649405</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5580843862835649</v>
+        <v>0.5580843862835648</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5319544866088455</v>
@@ -974,7 +974,7 @@
         <v>0.3833854438476186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2750141779367528</v>
+        <v>0.2750141779367525</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6211646063796626</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1868790512452094</v>
+        <v>0.1292001306910981</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01116428890979936</v>
+        <v>-0.01490435625074658</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.0421430353128666</v>
+        <v>0.02423663581251254</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08660745593817878</v>
+        <v>0.1001319541068804</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02154117373373943</v>
+        <v>-0.02341940390882648</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.07656769296952033</v>
+        <v>-0.05064038711268774</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2581146485693427</v>
+        <v>0.2494816287385698</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08465907301631291</v>
+        <v>0.1094208314755505</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.08909108736723201</v>
+        <v>0.0693911174071417</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.739448042739174</v>
+        <v>1.620649700819805</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.361664284793242</v>
+        <v>1.303941962792077</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.317448810167645</v>
+        <v>1.405620371593724</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.135016469838968</v>
+        <v>1.202254694508432</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9858444727545022</v>
+        <v>0.9732302046802198</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7453772103234885</v>
+        <v>0.7964570049003922</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.135374878404219</v>
+        <v>1.080827688689933</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.869085606056344</v>
+        <v>0.9008330473445264</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8024578876400312</v>
+        <v>0.7614377814256696</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.769953295111155</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.528030319007192</v>
+        <v>6.528030319007196</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.849086103790763</v>
@@ -1083,7 +1083,7 @@
         <v>6.525321467474988</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.409476555649551</v>
+        <v>8.409476555649549</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.731305171345348</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.623943962820938</v>
+        <v>-1.973191179596371</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05924529116162505</v>
+        <v>0.665790676157324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.909215725606507</v>
+        <v>1.927548376841226</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3083644492980426</v>
+        <v>-0.1117913202131799</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.788668363992976</v>
+        <v>1.406697485103011</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.291927074091732</v>
+        <v>4.275436853007845</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5861905205197765</v>
+        <v>0.6042883297787047</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.5555408908476</v>
+        <v>2.337761335283037</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.375433247793729</v>
+        <v>4.562254170720165</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.045679576175963</v>
+        <v>7.043484171550022</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.065374421229425</v>
+        <v>9.785235748630051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.94684137221686</v>
+        <v>11.16178774714904</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.752888729550719</v>
+        <v>9.858086664816486</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.10994922579765</v>
+        <v>11.79057677343318</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.60338071162144</v>
+        <v>13.02324832622249</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.200690230109</v>
+        <v>7.488267650401786</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.062054476843604</v>
+        <v>9.030677806855426</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.5644896227742</v>
+        <v>10.5037469383579</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5864532425864585</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8026041999631922</v>
+        <v>0.8026041999631925</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5842098723485106</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1895889786331723</v>
+        <v>-0.2031399627367224</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01535261046038639</v>
+        <v>0.04605469798329435</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1627361900280869</v>
+        <v>0.1594782529550098</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.004460090373294279</v>
+        <v>-0.01725656736566102</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1370667425004554</v>
+        <v>0.1040448171741753</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4089538669474716</v>
+        <v>0.3932008040533343</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05168607712009047</v>
+        <v>0.05119638220307907</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2596169699481251</v>
+        <v>0.2045923477871689</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4374407762492144</v>
+        <v>0.4408513357397856</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.135835359466611</v>
+        <v>1.134096030120169</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.539291853973076</v>
+        <v>1.551574941549</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.82649946455949</v>
+        <v>1.786809536987913</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.515761200303736</v>
+        <v>1.706468019891471</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.860350043536185</v>
+        <v>1.930466562398505</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.176126209724988</v>
+        <v>2.352877195334333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.043054687535536</v>
+        <v>1.115106548830935</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.363547906377999</v>
+        <v>1.277447378351614</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.593138918867314</v>
+        <v>1.541560388773504</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>6.011023022279764</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9.015579600747445</v>
+        <v>9.015579600747449</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>9.927968488554148</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.011439773425018</v>
+        <v>0.8762755644251244</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.094346957282306</v>
+        <v>2.12957103593371</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.395191188668871</v>
+        <v>4.688629862360025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.535124879156924</v>
+        <v>5.600898001418924</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.251555052764758</v>
+        <v>4.115477697000241</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.72170560564227</v>
+        <v>6.241570669448341</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.525676252757519</v>
+        <v>4.724940639024337</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.37699343471487</v>
+        <v>4.154590940228327</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.543272067935363</v>
+        <v>6.276716085280078</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.722858174460866</v>
+        <v>9.756947390374588</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.42824685297411</v>
+        <v>10.40263654605138</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.05893815235895</v>
+        <v>14.29788302118597</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.64682087467815</v>
+        <v>14.53654492832871</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.16234190459033</v>
+        <v>12.74832818205837</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.86683619130562</v>
+        <v>13.54492516730114</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.79880398580887</v>
+        <v>10.6512528492737</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.35937782786973</v>
+        <v>10.42520052413137</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.51202266969061</v>
+        <v>12.28626076530594</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.426428034253316</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.672166598275736</v>
+        <v>1.672166598275737</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.221644320509519</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1113228363976186</v>
+        <v>0.07139829142344958</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2271706867856359</v>
+        <v>0.2539375892640559</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5015503736119507</v>
+        <v>0.5191725599119952</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.6235640849782517</v>
+        <v>0.7130401071798077</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4614250633435419</v>
+        <v>0.510717336886235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7529073798475451</v>
+        <v>0.7368451091699568</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5646626389653621</v>
+        <v>0.5854725522715235</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.5752932602968167</v>
+        <v>0.530448171033178</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.8391793514276951</v>
+        <v>0.786000381343445</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.058926945666491</v>
+        <v>1.933581454121323</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.182936340593193</v>
+        <v>2.098715619156847</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.770713697504561</v>
+        <v>2.82612437402181</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.143732331768686</v>
+        <v>3.35511454100168</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.887631583295902</v>
+        <v>2.975785866921504</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.304878220538376</v>
+        <v>3.275854844553717</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.100674278574857</v>
+        <v>2.021914285119781</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.957855949666216</v>
+        <v>1.954571628442267</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.51433752916477</v>
+        <v>2.403948414978208</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.79779175814163</v>
+        <v>-1.502194101670577</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.966409944961225</v>
+        <v>-4.676925932212026</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.103046434558884</v>
+        <v>1.752794453018995</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.878095113694222</v>
+        <v>4.416893203866756</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.721618773796729</v>
+        <v>-2.490264751335449</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.094808042133916</v>
+        <v>8.819281142160348</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.926923598374385</v>
+        <v>3.831577435497921</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.649161222947506</v>
+        <v>-1.371324907246407</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>7.275768768070426</v>
+        <v>6.838839666816446</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.67005160454148</v>
+        <v>11.58175828668682</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.495787715900883</v>
+        <v>8.27184850175175</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.03096207282858</v>
+        <v>14.34956081909558</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.57557333241226</v>
+        <v>18.49732609449567</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.84525861081572</v>
+        <v>11.03717333307461</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>20.25365441544255</v>
+        <v>20.06565088537792</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.35259609099759</v>
+        <v>13.69143708770524</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.490775374348148</v>
+        <v>7.438103250786601</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.5091348219717</v>
+        <v>15.25853368881089</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1286369759277981</v>
+        <v>-0.1048303809673294</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3504617036297575</v>
+        <v>-0.3260917929417769</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.06852525162643788</v>
+        <v>0.1010629597669158</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3599056970935491</v>
+        <v>0.2983399359090099</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1296866127636013</v>
+        <v>-0.1907721846486539</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6213642478970945</v>
+        <v>0.5861202007890205</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2860363501164415</v>
+        <v>0.2613702413877257</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1259666773551581</v>
+        <v>-0.1084500656545503</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.535248009165322</v>
+        <v>0.4754578555802049</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.396026033666612</v>
+        <v>1.444038664699931</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.070449641425781</v>
+        <v>1.025625722601207</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.68831818793387</v>
+        <v>1.770268586669564</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.567163251695704</v>
+        <v>2.555451581712702</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.598250453436728</v>
+        <v>1.479158025390607</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.974834693600547</v>
+        <v>2.948319959549182</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.465783806961573</v>
+        <v>1.585542042603497</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8681750027855949</v>
+        <v>0.8471076810613208</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.796192494375749</v>
+        <v>1.791632747667517</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-2.659839180039906</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.223671292631479</v>
+        <v>4.223671292631481</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.168432094456872</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.401767744900287</v>
+        <v>3.286319590642884</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0.2063183781662591</v>
+        <v>-0.3622262166427979</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9.708167053868049</v>
+        <v>9.800359260020329</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.209126779145004</v>
+        <v>-3.722264876864169</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.675373848404599</v>
+        <v>-8.574333147145593</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.9799192676708066</v>
+        <v>-1.109929798892954</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.120638510064976</v>
+        <v>1.214610077723429</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.832045372549477</v>
+        <v>-2.561768317064721</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5.997780236396239</v>
+        <v>5.880902125882608</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.5101240456335</v>
+        <v>14.04669515842047</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>9.677445650714485</v>
+        <v>8.970403429612761</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>19.35174665725323</v>
+        <v>19.56828921153062</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.068971303966132</v>
+        <v>8.08519564972177</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.97849820265161</v>
+        <v>2.873636081715436</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>9.626013459595443</v>
+        <v>9.044504184171059</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.232428499802266</v>
+        <v>9.272801673413886</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.316418137519679</v>
+        <v>4.627092594765683</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.97063000355751</v>
+        <v>12.7986296762697</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1981486940094798</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.314648703891828</v>
+        <v>0.3146487038918282</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5368406247997498</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.4038320704481247</v>
+        <v>0.3723508227228676</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01210844387570903</v>
+        <v>-0.1470358825688727</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.14960201459361</v>
+        <v>1.14414642040497</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.203008030326927</v>
+        <v>-0.2277851902377832</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5170909447480396</v>
+        <v>-0.5156112212536725</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.06328029613393399</v>
+        <v>-0.06470413762687993</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.08898274074751189</v>
+        <v>0.07597800008830376</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2524850519819182</v>
+        <v>-0.2329958485412919</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4971238299208274</v>
+        <v>0.4894282128103208</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3.603530075039391</v>
+        <v>3.497367246506369</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.385500630065251</v>
+        <v>2.07920030607034</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5.203405463322004</v>
+        <v>5.088026781838518</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.8677555972024609</v>
+        <v>0.7067768879095464</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2969068018717634</v>
+        <v>0.2969622449081655</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9604106168579695</v>
+        <v>0.9036118876960058</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.130482842594445</v>
+        <v>1.137470853644777</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.5788755955550164</v>
+        <v>0.5881143355919034</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.747773103364961</v>
+        <v>1.674258842269904</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-0.4683034997978425</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>7.469929818011743</v>
+        <v>7.469929818011738</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.580758543985608</v>
@@ -1948,7 +1948,7 @@
         <v>1.967928882307114</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>8.806570688281186</v>
+        <v>8.806570688281184</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.712150236029796</v>
+        <v>1.695627236217889</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.687569796934901</v>
+        <v>1.313712875775682</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.635748281282362</v>
+        <v>6.479332526523524</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.897401301443197</v>
+        <v>-3.06238339809094</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.745216042088118</v>
+        <v>-4.20891582445905</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.516144674156928</v>
+        <v>3.95637042950825</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.2442591383011771</v>
+        <v>0.0760147959478238</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.4858722668251082</v>
+        <v>-0.4274117678185053</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>6.197868701755425</v>
+        <v>6.423318394536452</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.138289582986909</v>
+        <v>8.220791595498966</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.746721847967702</v>
+        <v>7.792229594200179</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.49914956023622</v>
+        <v>13.54538884315923</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.320858135178303</v>
+        <v>4.191634719280325</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.17584508896353</v>
+        <v>3.108253707516128</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.73105458065199</v>
+        <v>11.04960953651411</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.985372500880041</v>
+        <v>5.0657491778667</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.254334391324598</v>
+        <v>4.348324786098297</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.23743285798326</v>
+        <v>11.31286589024118</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.04270686061019324</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6812190206638796</v>
+        <v>0.6812190206638792</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.294527665507122</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2170513685087586</v>
+        <v>0.1908030839571095</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2146026809809121</v>
+        <v>0.1571454394998795</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.832208396682564</v>
+        <v>0.8128012787495424</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2411310246098372</v>
+        <v>-0.2450211703958444</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3055165610026419</v>
+        <v>-0.3344105411283045</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2815099923523007</v>
+        <v>0.2933051869401931</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02787886449622498</v>
+        <v>0.007825321154049285</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.05898596782158795</v>
+        <v>-0.04721381923903323</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.6129637220817171</v>
+        <v>0.6270224105133566</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.612594759026771</v>
+        <v>1.708473753593124</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.571764357127886</v>
+        <v>1.586278982482046</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.583761853401699</v>
+        <v>2.726268412568044</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4890580674560471</v>
+        <v>0.4743824284190195</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3456025144291527</v>
+        <v>0.3339763073722157</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.18105908069472</v>
+        <v>1.207797965974196</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6749731686166683</v>
+        <v>0.679199508858056</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5468845284613487</v>
+        <v>0.560170634613637</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.496252683222506</v>
+        <v>1.531826728725213</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-0.5734189626063618</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.002167920240536692</v>
+        <v>0.002167920240539467</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.2679939028093062</v>
@@ -2162,7 +2162,7 @@
         <v>0.8323201389848156</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.8168393642047369</v>
+        <v>0.8168393642047398</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-5.272971345626434</v>
+        <v>-5.319193194794971</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.386474453170997</v>
+        <v>-3.900858985483038</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.884653368957405</v>
+        <v>-3.077749727765336</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.724356439446287</v>
+        <v>-3.705115011748766</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.441728921152007</v>
+        <v>-1.193827619615678</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.305467623042106</v>
+        <v>-1.787586049656157</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-3.387465959131407</v>
+        <v>-3.636205484142536</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-1.559307881021018</v>
+        <v>-1.562246795286728</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-1.319316863476582</v>
+        <v>-1.376341428662839</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.034612003761286</v>
+        <v>0.9214768756358963</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.900281344031952</v>
+        <v>2.09848755436949</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.986920260599351</v>
+        <v>2.919625939084737</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.847659284574021</v>
+        <v>3.329865072244544</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.537182594873801</v>
+        <v>6.054210252214876</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.669664753299666</v>
+        <v>4.847181806641492</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.9713384480201214</v>
+        <v>1.016184324651492</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.270373781750211</v>
+        <v>3.221860513779281</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.093559208901917</v>
+        <v>2.92481894980855</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.05321082298731036</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.0002011737101359078</v>
+        <v>0.0002011737101361654</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.02272320803329502</v>
@@ -2267,7 +2267,7 @@
         <v>0.073667539497846</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.0722973568792208</v>
+        <v>0.07229735687922105</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4244667327492916</v>
+        <v>-0.4289688407681875</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2788681912470301</v>
+        <v>-0.3162563341272912</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2319718834419366</v>
+        <v>-0.2402232027046443</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.271880035084342</v>
+        <v>-0.2683957139110028</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1063012036340972</v>
+        <v>-0.08874705420609619</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.09652950660439827</v>
+        <v>-0.134566404443546</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2758837311210456</v>
+        <v>-0.2899472267675382</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.127597344289612</v>
+        <v>-0.118488862962182</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1073050564171296</v>
+        <v>-0.1086303607397561</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1324010371565058</v>
+        <v>0.1015782466189821</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3322631159477537</v>
+        <v>0.2209884237845591</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3306273624579367</v>
+        <v>0.3222552947334842</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2723575367189907</v>
+        <v>0.3340707668833977</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.520278892566479</v>
+        <v>0.5952163759039952</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4841411600178928</v>
+        <v>0.488074056059502</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.101733655046874</v>
+        <v>0.1035854929150489</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3215388319579218</v>
+        <v>0.3187409566324497</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3045951873472445</v>
+        <v>0.2888086795911499</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>3.527888238526517</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>6.449248505440511</v>
+        <v>6.449248505440513</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>3.502978372962248</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>2.025034898960658</v>
+        <v>1.83825212664059</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.097277246414546</v>
+        <v>2.19592658289049</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>5.131082885736712</v>
+        <v>5.037114406416039</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.879805846965697</v>
+        <v>1.849819712266886</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.219304442811876</v>
+        <v>1.483900020756443</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>4.32112571581497</v>
+        <v>4.431430817758386</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.409715861100225</v>
+        <v>2.374736796082835</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>2.142285365635177</v>
+        <v>2.1695665789715</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>5.116171311693133</v>
+        <v>5.017245611268033</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>4.784929529177544</v>
+        <v>4.878533221667569</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>5.025064570646822</v>
+        <v>4.886434839575447</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7.991386289744631</v>
+        <v>7.982868839950559</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.991808947447889</v>
+        <v>5.046501563640861</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.517929030641398</v>
+        <v>4.583459973549399</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>7.045403446446453</v>
+        <v>7.248390207161136</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.600870022116131</v>
+        <v>4.617671980667517</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>4.208290101251517</v>
+        <v>4.411143339920518</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>7.088795052619165</v>
+        <v>7.123957867156443</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.4450812414357603</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.8136424220536174</v>
+        <v>0.8136424220536177</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.3399738799097463</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2302279701789126</v>
+        <v>0.2207342768563257</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.2454064072105929</v>
+        <v>0.2560012817181573</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.5841736527528759</v>
+        <v>0.5829434881450227</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1648954758087763</v>
+        <v>0.1630295324026122</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1075584532339206</v>
+        <v>0.1332364344880234</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3878870763138737</v>
+        <v>0.4036103541767431</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2482718994144983</v>
+        <v>0.246701540867134</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2229445789335069</v>
+        <v>0.2241175415252719</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.5232297335759499</v>
+        <v>0.5166302136161338</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6556130539765708</v>
+        <v>0.6750890310179479</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.6757942749872432</v>
+        <v>0.6631878319837459</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.098956205396936</v>
+        <v>1.089386992514123</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.5112211434093709</v>
+        <v>0.528456534080733</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.4692767988557716</v>
+        <v>0.4741081818731293</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.746783199253703</v>
+        <v>0.7864170511941259</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5356905035859618</v>
+        <v>0.5391328046642765</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.4894156158173613</v>
+        <v>0.5120671409405796</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.8266493269136819</v>
+        <v>0.8246262975919852</v>
       </c>
     </row>
     <row r="58">
